--- a/BackTest/2019-10-29 BackTest SNT.xlsx
+++ b/BackTest/2019-10-29 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>65327.834</v>
       </c>
       <c r="G2" t="n">
-        <v>1305091.531794772</v>
+        <v>15.21</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>80000</v>
       </c>
       <c r="G3" t="n">
-        <v>1225091.531794772</v>
+        <v>15.20000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>492.2466</v>
       </c>
       <c r="G4" t="n">
-        <v>1225091.531794772</v>
+        <v>15.195</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>290001.7105</v>
       </c>
       <c r="G5" t="n">
-        <v>1515093.242294772</v>
+        <v>15.175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>30893</v>
       </c>
       <c r="G6" t="n">
-        <v>1484200.242294772</v>
+        <v>15.16</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>55761.4083</v>
       </c>
       <c r="G7" t="n">
-        <v>1484200.242294772</v>
+        <v>15.145</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>40554.4672</v>
       </c>
       <c r="G8" t="n">
-        <v>1484200.242294772</v>
+        <v>15.125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>359.5721</v>
       </c>
       <c r="G9" t="n">
-        <v>1484200.242294772</v>
+        <v>15.105</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>2702.96</v>
       </c>
       <c r="G10" t="n">
-        <v>1486903.202294772</v>
+        <v>15.095</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>2545.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1486903.202294772</v>
+        <v>15.08</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -781,6 +795,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -802,7 +817,7 @@
         <v>31849.8309</v>
       </c>
       <c r="G12" t="n">
-        <v>1455053.371394772</v>
+        <v>15.055</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,6 +837,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -843,7 +859,7 @@
         <v>24000</v>
       </c>
       <c r="G13" t="n">
-        <v>1479053.371394772</v>
+        <v>15.04</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,7 +903,7 @@
         <v>30197.8412</v>
       </c>
       <c r="G14" t="n">
-        <v>1479053.371394772</v>
+        <v>15.02</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,6 +923,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -927,7 +945,7 @@
         <v>3261.553</v>
       </c>
       <c r="G15" t="n">
-        <v>1479053.371394772</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -949,6 +967,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,7 +989,7 @@
         <v>41473.3554</v>
       </c>
       <c r="G16" t="n">
-        <v>1520526.726794772</v>
+        <v>14.98999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -992,6 +1011,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1013,7 +1033,7 @@
         <v>3388</v>
       </c>
       <c r="G17" t="n">
-        <v>1520526.726794772</v>
+        <v>14.98499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1033,6 +1053,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,7 +1075,7 @@
         <v>46800</v>
       </c>
       <c r="G18" t="n">
-        <v>1520526.726794772</v>
+        <v>14.97499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1074,6 +1095,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1095,7 +1117,7 @@
         <v>54.6113</v>
       </c>
       <c r="G19" t="n">
-        <v>1520526.726794772</v>
+        <v>14.96999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1115,6 +1137,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1136,7 +1159,7 @@
         <v>127667.6986</v>
       </c>
       <c r="G20" t="n">
-        <v>1648194.425394772</v>
+        <v>14.96999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1156,6 +1179,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1177,7 +1201,7 @@
         <v>3202.12</v>
       </c>
       <c r="G21" t="n">
-        <v>1644992.305394772</v>
+        <v>14.96499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1197,6 +1221,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1218,7 +1243,7 @@
         <v>66.2251655629139</v>
       </c>
       <c r="G22" t="n">
-        <v>1645058.530560334</v>
+        <v>14.96499999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1238,6 +1263,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1259,7 +1285,7 @@
         <v>39863.2117</v>
       </c>
       <c r="G23" t="n">
-        <v>1645058.530560334</v>
+        <v>14.96999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1279,6 +1305,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,7 +1327,7 @@
         <v>5968</v>
       </c>
       <c r="G24" t="n">
-        <v>1645058.530560334</v>
+        <v>14.97499999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1320,6 +1347,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1341,7 +1369,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>1645158.530560334</v>
+        <v>14.98999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1361,6 +1389,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,7 +1411,7 @@
         <v>66.2251655629139</v>
       </c>
       <c r="G26" t="n">
-        <v>1645092.305394772</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1402,6 +1431,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1423,7 +1453,7 @@
         <v>19933.77483443708</v>
       </c>
       <c r="G27" t="n">
-        <v>1645092.305394772</v>
+        <v>15.01</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1443,6 +1473,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1464,7 +1495,7 @@
         <v>5824.9352</v>
       </c>
       <c r="G28" t="n">
-        <v>1650917.240594771</v>
+        <v>15.025</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1484,6 +1515,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1505,7 +1537,7 @@
         <v>18226.1985</v>
       </c>
       <c r="G29" t="n">
-        <v>1650917.240594771</v>
+        <v>15.04</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1525,6 +1557,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,7 +1579,7 @@
         <v>7561.2946</v>
       </c>
       <c r="G30" t="n">
-        <v>1650917.240594771</v>
+        <v>15.05</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1566,6 +1599,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1587,7 +1621,7 @@
         <v>19165</v>
       </c>
       <c r="G31" t="n">
-        <v>1631752.240594771</v>
+        <v>15.05</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1607,6 +1641,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1628,7 +1663,7 @@
         <v>105000</v>
       </c>
       <c r="G32" t="n">
-        <v>1736752.240594771</v>
+        <v>15.065</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1648,6 +1683,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1669,7 +1705,7 @@
         <v>6702.8961</v>
       </c>
       <c r="G33" t="n">
-        <v>1730049.344494771</v>
+        <v>15.075</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1689,6 +1725,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1710,7 +1747,7 @@
         <v>619.5599</v>
       </c>
       <c r="G34" t="n">
-        <v>1730668.904394771</v>
+        <v>15.085</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1730,6 +1767,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1751,7 +1789,7 @@
         <v>6600</v>
       </c>
       <c r="G35" t="n">
-        <v>1724068.904394771</v>
+        <v>15.09500000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1771,6 +1809,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,7 +1831,7 @@
         <v>6600</v>
       </c>
       <c r="G36" t="n">
-        <v>1730668.904394771</v>
+        <v>15.11000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1812,6 +1851,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1833,7 +1873,7 @@
         <v>500</v>
       </c>
       <c r="G37" t="n">
-        <v>1730168.904394771</v>
+        <v>15.11500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1853,6 +1893,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1874,7 +1915,7 @@
         <v>2156.758</v>
       </c>
       <c r="G38" t="n">
-        <v>1732325.662394771</v>
+        <v>15.12500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1894,6 +1935,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1915,7 +1957,7 @@
         <v>80115.30379999999</v>
       </c>
       <c r="G39" t="n">
-        <v>1812440.966194771</v>
+        <v>15.14000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1935,6 +1977,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1956,7 +1999,7 @@
         <v>152888.9073</v>
       </c>
       <c r="G40" t="n">
-        <v>1965329.873494771</v>
+        <v>15.16000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1976,6 +2019,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,7 +2041,7 @@
         <v>384882.2087304348</v>
       </c>
       <c r="G41" t="n">
-        <v>2350212.082225206</v>
+        <v>15.19500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2017,6 +2061,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2038,7 +2083,7 @@
         <v>7760</v>
       </c>
       <c r="G42" t="n">
-        <v>2342452.082225206</v>
+        <v>15.225</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2057,6 +2102,9 @@
       </c>
       <c r="M42" t="n">
         <v>1.028333333333334</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.020134228187919</v>
       </c>
     </row>
     <row r="43">
@@ -2079,13 +2127,13 @@
         <v>71423.62820000001</v>
       </c>
       <c r="G43" t="n">
-        <v>2413875.710425206</v>
+        <v>15.255</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2093,6 +2141,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,7 +2163,7 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>2413675.710425206</v>
+        <v>15.28</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2128,6 +2177,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2149,7 +2199,7 @@
         <v>2032.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>2413675.710425206</v>
+        <v>15.30000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2163,6 +2213,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2184,7 +2235,7 @@
         <v>21100</v>
       </c>
       <c r="G46" t="n">
-        <v>2392575.710425206</v>
+        <v>15.32</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2198,6 +2249,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2219,7 +2271,7 @@
         <v>2227.317</v>
       </c>
       <c r="G47" t="n">
-        <v>2392575.710425206</v>
+        <v>15.335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2233,6 +2285,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2254,13 +2307,13 @@
         <v>4044.874</v>
       </c>
       <c r="G48" t="n">
-        <v>2388530.836425207</v>
+        <v>15.34</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2268,6 +2321,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2289,7 +2343,7 @@
         <v>217416.9088</v>
       </c>
       <c r="G49" t="n">
-        <v>2171113.927625207</v>
+        <v>15.34</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2303,6 +2357,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,7 +2379,7 @@
         <v>21815</v>
       </c>
       <c r="G50" t="n">
-        <v>2171113.927625207</v>
+        <v>15.34</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2338,6 +2393,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,7 +2415,7 @@
         <v>35913.7566</v>
       </c>
       <c r="G51" t="n">
-        <v>2171113.927625207</v>
+        <v>15.35</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2373,6 +2429,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2394,7 +2451,7 @@
         <v>61800</v>
       </c>
       <c r="G52" t="n">
-        <v>2171113.927625207</v>
+        <v>15.35</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2408,6 +2465,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2429,7 +2487,7 @@
         <v>1880.1995</v>
       </c>
       <c r="G53" t="n">
-        <v>2171113.927625207</v>
+        <v>15.355</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2443,6 +2501,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2464,7 +2523,7 @@
         <v>1179.0499</v>
       </c>
       <c r="G54" t="n">
-        <v>2171113.927625207</v>
+        <v>15.36</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2478,6 +2537,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2499,7 +2559,7 @@
         <v>52434.4703</v>
       </c>
       <c r="G55" t="n">
-        <v>2118679.457325207</v>
+        <v>15.36</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2513,6 +2573,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2534,7 +2595,7 @@
         <v>435</v>
       </c>
       <c r="G56" t="n">
-        <v>2119114.457325207</v>
+        <v>15.355</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2548,6 +2609,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2569,7 +2631,7 @@
         <v>74288.5526</v>
       </c>
       <c r="G57" t="n">
-        <v>2119114.457325207</v>
+        <v>15.36</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2583,6 +2645,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2604,13 +2667,13 @@
         <v>410635.3971</v>
       </c>
       <c r="G58" t="n">
-        <v>1708479.060225207</v>
+        <v>15.355</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2618,6 +2681,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2639,7 +2703,7 @@
         <v>69012.4942</v>
       </c>
       <c r="G59" t="n">
-        <v>1708479.060225207</v>
+        <v>15.345</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2653,6 +2717,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2674,13 +2739,13 @@
         <v>6497.5474</v>
       </c>
       <c r="G60" t="n">
-        <v>1701981.512825207</v>
+        <v>15.325</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2688,6 +2753,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2709,7 +2775,7 @@
         <v>1149.9501</v>
       </c>
       <c r="G61" t="n">
-        <v>1703131.462925207</v>
+        <v>15.295</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2723,6 +2789,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,7 +2811,7 @@
         <v>44185.0198</v>
       </c>
       <c r="G62" t="n">
-        <v>1658946.443125207</v>
+        <v>15.265</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2758,6 +2825,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2779,7 +2847,7 @@
         <v>1090.7868</v>
       </c>
       <c r="G63" t="n">
-        <v>1658946.443125207</v>
+        <v>15.23</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2793,6 +2861,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2814,7 +2883,7 @@
         <v>2000</v>
       </c>
       <c r="G64" t="n">
-        <v>1660946.443125207</v>
+        <v>15.205</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2828,6 +2897,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2849,7 +2919,7 @@
         <v>11127.1582</v>
       </c>
       <c r="G65" t="n">
-        <v>1660946.443125207</v>
+        <v>15.18</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2863,6 +2933,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2884,7 +2955,7 @@
         <v>88723.6167</v>
       </c>
       <c r="G66" t="n">
-        <v>1660946.443125207</v>
+        <v>15.16000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2902,6 +2973,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2923,7 +2995,7 @@
         <v>151854.8363</v>
       </c>
       <c r="G67" t="n">
-        <v>1660946.443125207</v>
+        <v>15.14500000000001</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2945,6 +3017,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2966,7 +3039,7 @@
         <v>24613.9857</v>
       </c>
       <c r="G68" t="n">
-        <v>1660946.443125207</v>
+        <v>15.13500000000001</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -2988,6 +3061,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3009,7 +3083,7 @@
         <v>1880.1995</v>
       </c>
       <c r="G69" t="n">
-        <v>1660946.443125207</v>
+        <v>15.13000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -3027,6 +3101,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3048,7 +3123,7 @@
         <v>426.0274</v>
       </c>
       <c r="G70" t="n">
-        <v>1660946.443125207</v>
+        <v>15.12500000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3068,6 +3143,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3089,7 +3165,7 @@
         <v>70009.14697225807</v>
       </c>
       <c r="G71" t="n">
-        <v>1660946.443125207</v>
+        <v>15.12000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3109,6 +3185,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3130,13 +3207,13 @@
         <v>2986</v>
       </c>
       <c r="G72" t="n">
-        <v>1660946.443125207</v>
+        <v>15.11500000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
@@ -3150,6 +3227,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3171,7 +3249,7 @@
         <v>2744.018</v>
       </c>
       <c r="G73" t="n">
-        <v>1658202.425125207</v>
+        <v>15.10500000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3191,6 +3269,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3212,7 +3291,7 @@
         <v>17800</v>
       </c>
       <c r="G74" t="n">
-        <v>1658202.425125207</v>
+        <v>15.09500000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3232,6 +3311,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3253,7 +3333,7 @@
         <v>2177.0763</v>
       </c>
       <c r="G75" t="n">
-        <v>1658202.425125207</v>
+        <v>15.09000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3273,6 +3353,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3294,7 +3375,7 @@
         <v>3469.4078</v>
       </c>
       <c r="G76" t="n">
-        <v>1661671.832925207</v>
+        <v>15.09000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3314,6 +3395,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3335,7 +3417,7 @@
         <v>2877</v>
       </c>
       <c r="G77" t="n">
-        <v>1658794.832925207</v>
+        <v>15.08500000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3355,6 +3437,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3376,7 +3459,7 @@
         <v>74776.27899999999</v>
       </c>
       <c r="G78" t="n">
-        <v>1733571.111925207</v>
+        <v>15.09000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3396,6 +3479,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3417,13 +3501,13 @@
         <v>3770</v>
       </c>
       <c r="G79" t="n">
-        <v>1729801.111925207</v>
+        <v>15.09000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -3437,6 +3521,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3458,7 +3543,7 @@
         <v>8151.5436</v>
       </c>
       <c r="G80" t="n">
-        <v>1721649.568325207</v>
+        <v>15.08500000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3478,6 +3563,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3499,7 +3585,7 @@
         <v>2137.3488</v>
       </c>
       <c r="G81" t="n">
-        <v>1723786.917125207</v>
+        <v>15.08000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3519,6 +3605,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3540,7 +3627,7 @@
         <v>2122.8589</v>
       </c>
       <c r="G82" t="n">
-        <v>1721664.058225207</v>
+        <v>15.07500000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3560,6 +3647,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3581,7 +3669,7 @@
         <v>1901.3768</v>
       </c>
       <c r="G83" t="n">
-        <v>1721664.058225207</v>
+        <v>15.07500000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3601,6 +3689,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3622,7 +3711,7 @@
         <v>1901.3768</v>
       </c>
       <c r="G84" t="n">
-        <v>1721664.058225207</v>
+        <v>15.07000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3642,6 +3731,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3663,7 +3753,7 @@
         <v>15627.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>1706036.058325207</v>
+        <v>15.06000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3683,6 +3773,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3704,7 +3795,7 @@
         <v>5893.1403</v>
       </c>
       <c r="G86" t="n">
-        <v>1706036.058325207</v>
+        <v>15.05000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3724,6 +3815,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3745,7 +3837,7 @@
         <v>3183.8589</v>
       </c>
       <c r="G87" t="n">
-        <v>1709219.917225207</v>
+        <v>15.04</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3765,6 +3857,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3786,7 +3879,7 @@
         <v>102802.026</v>
       </c>
       <c r="G88" t="n">
-        <v>1606417.891225207</v>
+        <v>15.035</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3806,6 +3899,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3827,7 +3921,7 @@
         <v>24200</v>
       </c>
       <c r="G89" t="n">
-        <v>1606417.891225207</v>
+        <v>15.03</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3847,6 +3941,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3868,7 +3963,7 @@
         <v>33400</v>
       </c>
       <c r="G90" t="n">
-        <v>1606417.891225207</v>
+        <v>15.025</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3888,6 +3983,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3909,7 +4005,7 @@
         <v>24000</v>
       </c>
       <c r="G91" t="n">
-        <v>1606417.891225207</v>
+        <v>15.02</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3929,6 +4025,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3950,7 +4047,7 @@
         <v>18346</v>
       </c>
       <c r="G92" t="n">
-        <v>1588071.891225207</v>
+        <v>15.015</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3970,6 +4067,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3991,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>1588171.891225207</v>
+        <v>15.02</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4011,6 +4109,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4032,7 +4131,7 @@
         <v>4200</v>
       </c>
       <c r="G94" t="n">
-        <v>1592371.891225207</v>
+        <v>15.03</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4052,6 +4151,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4073,7 +4173,7 @@
         <v>36000</v>
       </c>
       <c r="G95" t="n">
-        <v>1592371.891225207</v>
+        <v>15.04</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4093,6 +4193,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4114,7 +4215,7 @@
         <v>17400</v>
       </c>
       <c r="G96" t="n">
-        <v>1592371.891225207</v>
+        <v>15.04</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4134,6 +4235,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4155,7 +4257,7 @@
         <v>8303.8352</v>
       </c>
       <c r="G97" t="n">
-        <v>1592371.891225207</v>
+        <v>15.045</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4175,6 +4277,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4196,7 +4299,7 @@
         <v>47229.31087368421</v>
       </c>
       <c r="G98" t="n">
-        <v>1592371.891225207</v>
+        <v>15.045</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4216,6 +4319,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4237,7 +4341,7 @@
         <v>4061.7818</v>
       </c>
       <c r="G99" t="n">
-        <v>1592371.891225207</v>
+        <v>15.04999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4257,6 +4361,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4278,7 +4383,7 @@
         <v>8536.38982631579</v>
       </c>
       <c r="G100" t="n">
-        <v>1592371.891225207</v>
+        <v>15.05999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4298,6 +4403,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4319,7 +4425,7 @@
         <v>30662.0982</v>
       </c>
       <c r="G101" t="n">
-        <v>1623033.989425207</v>
+        <v>15.07499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4339,6 +4445,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4360,7 +4467,7 @@
         <v>26905.9912</v>
       </c>
       <c r="G102" t="n">
-        <v>1623033.989425207</v>
+        <v>15.08999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4380,6 +4487,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4401,7 +4509,7 @@
         <v>49005.72937712418</v>
       </c>
       <c r="G103" t="n">
-        <v>1672039.718802331</v>
+        <v>15.105</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4421,6 +4529,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4442,7 +4551,7 @@
         <v>103070.9981228758</v>
       </c>
       <c r="G104" t="n">
-        <v>1672039.718802331</v>
+        <v>15.12499999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4462,6 +4571,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4483,7 +4593,7 @@
         <v>28832</v>
       </c>
       <c r="G105" t="n">
-        <v>1700871.718802331</v>
+        <v>15.155</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4503,6 +4613,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4524,7 +4635,7 @@
         <v>6305.2346</v>
       </c>
       <c r="G106" t="n">
-        <v>1700871.718802331</v>
+        <v>15.185</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4544,6 +4655,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4565,7 +4677,7 @@
         <v>1923.076</v>
       </c>
       <c r="G107" t="n">
-        <v>1702794.794802331</v>
+        <v>15.22</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4585,6 +4697,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4606,13 +4719,13 @@
         <v>7760</v>
       </c>
       <c r="G108" t="n">
-        <v>1695034.794802331</v>
+        <v>15.245</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
@@ -4620,11 +4733,14 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>1.021490066225166</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.087837837837838</v>
       </c>
     </row>
     <row r="109">
@@ -4647,7 +4763,7 @@
         <v>282021.9615</v>
       </c>
       <c r="G109" t="n">
-        <v>1413012.833302331</v>
+        <v>15.275</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4656,17 +4772,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4688,26 +4799,21 @@
         <v>9200</v>
       </c>
       <c r="G110" t="n">
-        <v>1422212.833302331</v>
+        <v>15.305</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4729,7 +4835,7 @@
         <v>19400</v>
       </c>
       <c r="G111" t="n">
-        <v>1441612.833302331</v>
+        <v>15.335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4738,17 +4844,12 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4770,26 +4871,21 @@
         <v>486401.4988</v>
       </c>
       <c r="G112" t="n">
-        <v>1928014.332102331</v>
+        <v>15.37</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4811,7 +4907,7 @@
         <v>200</v>
       </c>
       <c r="G113" t="n">
-        <v>1927814.332102331</v>
+        <v>15.405</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4820,17 +4916,12 @@
         <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>1.034735099337748</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4852,7 +4943,7 @@
         <v>104010.9253</v>
       </c>
       <c r="G114" t="n">
-        <v>2031825.257402331</v>
+        <v>15.435</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4866,6 +4957,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4887,7 +4979,7 @@
         <v>22600</v>
       </c>
       <c r="G115" t="n">
-        <v>2009225.257402331</v>
+        <v>15.46</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4901,6 +4993,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4922,13 +5015,13 @@
         <v>7955</v>
       </c>
       <c r="G116" t="n">
-        <v>2001270.257402331</v>
+        <v>15.475</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4936,6 +5029,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4957,7 +5051,7 @@
         <v>210</v>
       </c>
       <c r="G117" t="n">
-        <v>2001270.257402331</v>
+        <v>15.485</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4971,6 +5065,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4992,7 +5087,7 @@
         <v>35000</v>
       </c>
       <c r="G118" t="n">
-        <v>2001270.257402331</v>
+        <v>15.495</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5006,6 +5101,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5027,7 +5123,7 @@
         <v>772.0266</v>
       </c>
       <c r="G119" t="n">
-        <v>2000498.230802331</v>
+        <v>15.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5041,6 +5137,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5062,7 +5159,7 @@
         <v>1478.1828</v>
       </c>
       <c r="G120" t="n">
-        <v>2001976.413602331</v>
+        <v>15.51</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5076,6 +5173,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest SNT.xlsx
+++ b/BackTest/2019-10-29 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -450,13 +450,13 @@
         <v>15.1</v>
       </c>
       <c r="F2" t="n">
-        <v>65327.834</v>
+        <v>59600</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F3" t="n">
-        <v>80000</v>
+        <v>43854.0622</v>
       </c>
       <c r="G3" t="n">
-        <v>15.20000000000001</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F4" t="n">
-        <v>492.2466</v>
+        <v>2030</v>
       </c>
       <c r="G4" t="n">
-        <v>15.195</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F5" t="n">
-        <v>290001.7105</v>
+        <v>2030</v>
       </c>
       <c r="G5" t="n">
-        <v>15.175</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E6" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F6" t="n">
-        <v>30893</v>
+        <v>128.2781</v>
       </c>
       <c r="G6" t="n">
-        <v>15.16</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +638,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D7" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E7" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F7" t="n">
-        <v>55761.4083</v>
+        <v>128.2781</v>
       </c>
       <c r="G7" t="n">
-        <v>15.145</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +674,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C8" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D8" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E8" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F8" t="n">
-        <v>40554.4672</v>
+        <v>632.1665</v>
       </c>
       <c r="G8" t="n">
-        <v>15.125</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +710,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D9" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E9" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5721</v>
+        <v>21263.4132</v>
       </c>
       <c r="G9" t="n">
-        <v>15.105</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +746,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F10" t="n">
-        <v>2702.96</v>
+        <v>5903.4411</v>
       </c>
       <c r="G10" t="n">
-        <v>15.095</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,35 +782,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F11" t="n">
-        <v>2545.18</v>
+        <v>26995.9418</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08</v>
+        <v>1417909.017994771</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -802,22 +818,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D12" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E12" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="F12" t="n">
-        <v>31849.8309</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>15.055</v>
+        <v>1437909.017994771</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -826,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>15</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -844,40 +854,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F13" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="n">
-        <v>15.04</v>
+        <v>1433909.017994771</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -888,22 +890,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D14" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="E14" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F14" t="n">
-        <v>30197.8412</v>
+        <v>355029.4184</v>
       </c>
       <c r="G14" t="n">
-        <v>15.02</v>
+        <v>1433909.017994771</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -912,14 +914,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>15</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -930,40 +926,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C15" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E15" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F15" t="n">
-        <v>3261.553</v>
+        <v>49309.4157</v>
       </c>
       <c r="G15" t="n">
-        <v>14.99999999999999</v>
+        <v>1483218.433694771</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -974,40 +962,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F16" t="n">
-        <v>41473.3554</v>
+        <v>1489.899</v>
       </c>
       <c r="G16" t="n">
-        <v>14.98999999999999</v>
+        <v>1483218.433694771</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1018,22 +998,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="F17" t="n">
-        <v>3388</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>14.98499999999999</v>
+        <v>1483318.433694771</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1042,14 +1022,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1060,22 +1034,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F18" t="n">
-        <v>46800</v>
+        <v>16900</v>
       </c>
       <c r="G18" t="n">
-        <v>14.97499999999999</v>
+        <v>1466418.433694771</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1084,14 +1058,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>15</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1102,22 +1070,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F19" t="n">
-        <v>54.6113</v>
+        <v>15861.7804</v>
       </c>
       <c r="G19" t="n">
-        <v>14.96999999999999</v>
+        <v>1466418.433694771</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1126,14 +1094,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>15</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1144,22 +1106,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F20" t="n">
-        <v>127667.6986</v>
+        <v>40121.8587</v>
       </c>
       <c r="G20" t="n">
-        <v>14.96999999999999</v>
+        <v>1506540.292394771</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1168,14 +1130,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>15</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1186,22 +1142,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="F21" t="n">
-        <v>3202.12</v>
+        <v>13400</v>
       </c>
       <c r="G21" t="n">
-        <v>14.96499999999999</v>
+        <v>1519940.292394771</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1210,14 +1166,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>15</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1228,22 +1178,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F22" t="n">
-        <v>66.2251655629139</v>
+        <v>77031</v>
       </c>
       <c r="G22" t="n">
-        <v>14.96499999999999</v>
+        <v>1442909.292394771</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1252,14 +1202,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>15</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1270,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C23" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D23" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E23" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F23" t="n">
-        <v>39863.2117</v>
+        <v>66665.0861</v>
       </c>
       <c r="G23" t="n">
-        <v>14.96999999999999</v>
+        <v>1509574.378494771</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1294,14 +1238,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>15</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1312,22 +1250,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C24" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D24" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E24" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F24" t="n">
-        <v>5968</v>
+        <v>104.9139</v>
       </c>
       <c r="G24" t="n">
-        <v>14.97499999999999</v>
+        <v>1509574.378494771</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1336,14 +1274,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>15</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1366,10 +1298,10 @@
         <v>15.2</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>93825.4672</v>
       </c>
       <c r="G25" t="n">
-        <v>14.98999999999999</v>
+        <v>1415748.911294771</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1378,14 +1310,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>15</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1408,10 +1334,10 @@
         <v>15.1</v>
       </c>
       <c r="F26" t="n">
-        <v>66.2251655629139</v>
+        <v>67469.4825</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>1348279.428794771</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1420,14 +1346,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>15</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1438,22 +1358,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C27" t="n">
         <v>15.1</v>
       </c>
       <c r="D27" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E27" t="n">
         <v>15.1</v>
       </c>
       <c r="F27" t="n">
-        <v>19933.77483443708</v>
+        <v>23964.4737</v>
       </c>
       <c r="G27" t="n">
-        <v>15.01</v>
+        <v>1348279.428794771</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1462,14 +1382,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>15</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1480,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C28" t="n">
         <v>15.2</v>
@@ -1489,13 +1403,13 @@
         <v>15.2</v>
       </c>
       <c r="E28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F28" t="n">
-        <v>5824.9352</v>
+        <v>100436.103</v>
       </c>
       <c r="G28" t="n">
-        <v>15.025</v>
+        <v>1448715.531794772</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1504,14 +1418,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>15</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1430,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C29" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D29" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E29" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F29" t="n">
-        <v>18226.1985</v>
+        <v>143624</v>
       </c>
       <c r="G29" t="n">
-        <v>15.04</v>
+        <v>1305091.531794772</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1546,14 +1454,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>15</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1564,22 +1466,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F30" t="n">
-        <v>7561.2946</v>
+        <v>226543.4548</v>
       </c>
       <c r="G30" t="n">
-        <v>15.05</v>
+        <v>1305091.531794772</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1588,14 +1490,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1606,22 +1502,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F31" t="n">
-        <v>19165</v>
+        <v>65327.834</v>
       </c>
       <c r="G31" t="n">
-        <v>15.05</v>
+        <v>1305091.531794772</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1630,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>15</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1648,22 +1538,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="G32" t="n">
-        <v>15.065</v>
+        <v>1225091.531794772</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1672,14 +1562,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>15</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>6702.8961</v>
+        <v>492.2466</v>
       </c>
       <c r="G33" t="n">
-        <v>15.075</v>
+        <v>1225091.531794772</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1714,14 +1598,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>15</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1732,7 +1610,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C34" t="n">
         <v>15.2</v>
@@ -1741,27 +1619,27 @@
         <v>15.2</v>
       </c>
       <c r="E34" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F34" t="n">
-        <v>619.5599</v>
+        <v>290001.7105</v>
       </c>
       <c r="G34" t="n">
-        <v>15.085</v>
+        <v>1515093.242294772</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>15</v>
-      </c>
+      <c r="J34" t="n">
+        <v>15</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1774,22 +1652,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C35" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D35" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F35" t="n">
-        <v>6600</v>
+        <v>30893</v>
       </c>
       <c r="G35" t="n">
-        <v>15.09500000000001</v>
+        <v>1484200.242294772</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1798,9 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>15</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1816,22 +1692,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="C36" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D36" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E36" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="F36" t="n">
-        <v>6600</v>
+        <v>55761.4083</v>
       </c>
       <c r="G36" t="n">
-        <v>15.11000000000001</v>
+        <v>1484200.242294772</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1840,9 +1716,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1858,33 +1732,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F37" t="n">
-        <v>500</v>
+        <v>40554.4672</v>
       </c>
       <c r="G37" t="n">
-        <v>15.11500000000001</v>
+        <v>1484200.242294772</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15</v>
-      </c>
+      <c r="J37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1900,33 +1774,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C38" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D38" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E38" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F38" t="n">
-        <v>2156.758</v>
+        <v>359.5721</v>
       </c>
       <c r="G38" t="n">
-        <v>15.12500000000001</v>
+        <v>1484200.242294772</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>15</v>
-      </c>
+      <c r="J38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,33 +1816,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>80115.30379999999</v>
+        <v>2702.96</v>
       </c>
       <c r="G39" t="n">
-        <v>15.14000000000001</v>
+        <v>1486903.202294772</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>15</v>
-      </c>
+      <c r="J39" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1984,33 +1858,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>152888.9073</v>
+        <v>2545.18</v>
       </c>
       <c r="G40" t="n">
-        <v>15.16000000000001</v>
+        <v>1486903.202294772</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>15</v>
-      </c>
+      <c r="J40" t="n">
+        <v>15</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2026,33 +1900,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="C41" t="n">
-        <v>16.1</v>
+        <v>14.8</v>
       </c>
       <c r="D41" t="n">
-        <v>16.1</v>
+        <v>14.9</v>
       </c>
       <c r="E41" t="n">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
       <c r="F41" t="n">
-        <v>384882.2087304348</v>
+        <v>31849.8309</v>
       </c>
       <c r="G41" t="n">
-        <v>15.19500000000001</v>
+        <v>1455053.371394772</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>15</v>
-      </c>
+      <c r="J41" t="n">
+        <v>15</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,76 +1942,80 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="C42" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="D42" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="E42" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="F42" t="n">
-        <v>7760</v>
+        <v>24000</v>
       </c>
       <c r="G42" t="n">
-        <v>15.225</v>
+        <v>1479053.371394772</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1.028333333333334</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.020134228187919</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="C43" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="D43" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="E43" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="F43" t="n">
-        <v>71423.62820000001</v>
+        <v>30197.8412</v>
       </c>
       <c r="G43" t="n">
-        <v>15.255</v>
+        <v>1479053.371394772</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2148,32 +2026,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="C44" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="D44" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="E44" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>3261.553</v>
       </c>
       <c r="G44" t="n">
-        <v>15.28</v>
+        <v>1479053.371394772</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2184,32 +2068,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>2032.9999</v>
+        <v>41473.3554</v>
       </c>
       <c r="G45" t="n">
-        <v>15.30000000000001</v>
+        <v>1520526.726794772</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2220,32 +2110,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>21100</v>
+        <v>3388</v>
       </c>
       <c r="G46" t="n">
-        <v>15.32</v>
+        <v>1520526.726794772</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2256,32 +2152,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>2227.317</v>
+        <v>46800</v>
       </c>
       <c r="G47" t="n">
-        <v>15.335</v>
+        <v>1520526.726794772</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>15</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2292,32 +2194,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>4044.874</v>
+        <v>54.6113</v>
       </c>
       <c r="G48" t="n">
-        <v>15.34</v>
+        <v>1520526.726794772</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2328,32 +2236,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D49" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F49" t="n">
-        <v>217416.9088</v>
+        <v>127667.6986</v>
       </c>
       <c r="G49" t="n">
-        <v>15.34</v>
+        <v>1648194.425394772</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>15</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2364,32 +2278,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>21815</v>
+        <v>3202.12</v>
       </c>
       <c r="G50" t="n">
-        <v>15.34</v>
+        <v>1644992.305394772</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2400,32 +2320,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C51" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D51" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E51" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F51" t="n">
-        <v>35913.7566</v>
+        <v>66.2251655629139</v>
       </c>
       <c r="G51" t="n">
-        <v>15.35</v>
+        <v>1645058.530560334</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2436,32 +2362,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C52" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D52" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E52" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F52" t="n">
-        <v>61800</v>
+        <v>39863.2117</v>
       </c>
       <c r="G52" t="n">
-        <v>15.35</v>
+        <v>1645058.530560334</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2472,32 +2404,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C53" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D53" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E53" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F53" t="n">
-        <v>1880.1995</v>
+        <v>5968</v>
       </c>
       <c r="G53" t="n">
-        <v>15.355</v>
+        <v>1645058.530560334</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2520,20 +2458,26 @@
         <v>15.2</v>
       </c>
       <c r="F54" t="n">
-        <v>1179.0499</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>15.36</v>
+        <v>1645158.530560334</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2556,10 +2500,10 @@
         <v>15.1</v>
       </c>
       <c r="F55" t="n">
-        <v>52434.4703</v>
+        <v>66.2251655629139</v>
       </c>
       <c r="G55" t="n">
-        <v>15.36</v>
+        <v>1645092.305394772</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2569,7 +2513,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2580,22 +2528,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E56" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F56" t="n">
-        <v>435</v>
+        <v>19933.77483443708</v>
       </c>
       <c r="G56" t="n">
-        <v>15.355</v>
+        <v>1645092.305394772</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2605,7 +2553,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2628,10 +2580,10 @@
         <v>15.2</v>
       </c>
       <c r="F57" t="n">
-        <v>74288.5526</v>
+        <v>5824.9352</v>
       </c>
       <c r="G57" t="n">
-        <v>15.36</v>
+        <v>1650917.240594771</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2641,7 +2593,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2652,32 +2608,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C58" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D58" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E58" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F58" t="n">
-        <v>410635.3971</v>
+        <v>18226.1985</v>
       </c>
       <c r="G58" t="n">
-        <v>15.355</v>
+        <v>1650917.240594771</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2688,32 +2648,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C59" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D59" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E59" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F59" t="n">
-        <v>69012.4942</v>
+        <v>7561.2946</v>
       </c>
       <c r="G59" t="n">
-        <v>15.345</v>
+        <v>1650917.240594771</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2724,32 +2688,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
         <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>6497.5474</v>
+        <v>19165</v>
       </c>
       <c r="G60" t="n">
-        <v>15.325</v>
+        <v>1631752.240594771</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2760,22 +2728,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F61" t="n">
-        <v>1149.9501</v>
+        <v>105000</v>
       </c>
       <c r="G61" t="n">
-        <v>15.295</v>
+        <v>1736752.240594771</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2785,7 +2753,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2799,19 +2771,19 @@
         <v>15.1</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D62" t="n">
         <v>15.1</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F62" t="n">
-        <v>44185.0198</v>
+        <v>6702.8961</v>
       </c>
       <c r="G62" t="n">
-        <v>15.265</v>
+        <v>1730049.344494771</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2821,7 +2793,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2832,22 +2808,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F63" t="n">
-        <v>1090.7868</v>
+        <v>619.5599</v>
       </c>
       <c r="G63" t="n">
-        <v>15.23</v>
+        <v>1730668.904394771</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2857,7 +2833,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2880,10 +2860,10 @@
         <v>15.1</v>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>6600</v>
       </c>
       <c r="G64" t="n">
-        <v>15.205</v>
+        <v>1724068.904394771</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2893,7 +2873,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2888,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C65" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D65" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E65" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F65" t="n">
-        <v>11127.1582</v>
+        <v>6600</v>
       </c>
       <c r="G65" t="n">
-        <v>15.18</v>
+        <v>1730668.904394771</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2929,7 +2913,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2952,24 +2940,24 @@
         <v>15.1</v>
       </c>
       <c r="F66" t="n">
-        <v>88723.6167</v>
+        <v>500</v>
       </c>
       <c r="G66" t="n">
-        <v>15.16000000000001</v>
+        <v>1730168.904394771</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2980,38 +2968,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F67" t="n">
-        <v>151854.8363</v>
+        <v>2156.758</v>
       </c>
       <c r="G67" t="n">
-        <v>15.14500000000001</v>
+        <v>1732325.662394771</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -3024,38 +3008,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C68" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D68" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E68" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F68" t="n">
-        <v>24613.9857</v>
+        <v>80115.30379999999</v>
       </c>
       <c r="G68" t="n">
-        <v>15.13500000000001</v>
+        <v>1812440.966194771</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -3068,36 +3048,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C69" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D69" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E69" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1880.1995</v>
+        <v>152888.9073</v>
       </c>
       <c r="G69" t="n">
-        <v>15.13000000000001</v>
+        <v>1965329.873494771</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3108,22 +3088,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C70" t="n">
-        <v>15.1</v>
+        <v>16.1</v>
       </c>
       <c r="D70" t="n">
-        <v>15.1</v>
+        <v>16.1</v>
       </c>
       <c r="E70" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F70" t="n">
-        <v>426.0274</v>
+        <v>384882.2087304348</v>
       </c>
       <c r="G70" t="n">
-        <v>15.12500000000001</v>
+        <v>2350212.082225206</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3132,12 +3112,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -3150,22 +3128,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C71" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D71" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E71" t="n">
         <v>15.5</v>
       </c>
-      <c r="E71" t="n">
-        <v>15.1</v>
-      </c>
       <c r="F71" t="n">
-        <v>70009.14697225807</v>
+        <v>7760</v>
       </c>
       <c r="G71" t="n">
-        <v>15.12000000000001</v>
+        <v>2342452.082225206</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3174,12 +3152,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3192,33 +3168,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C72" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D72" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E72" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F72" t="n">
-        <v>2986</v>
+        <v>71423.62820000001</v>
       </c>
       <c r="G72" t="n">
-        <v>15.11500000000001</v>
+        <v>2413875.710425206</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,22 +3208,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="F73" t="n">
-        <v>2744.018</v>
+        <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>15.10500000000001</v>
+        <v>2413675.710425206</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3258,9 +3232,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,22 +3248,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="F74" t="n">
-        <v>17800</v>
+        <v>2032.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>15.09500000000002</v>
+        <v>2413675.710425206</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3300,9 +3272,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,22 +3288,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="F75" t="n">
-        <v>2177.0763</v>
+        <v>21100</v>
       </c>
       <c r="G75" t="n">
-        <v>15.09000000000001</v>
+        <v>2392575.710425206</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3342,9 +3312,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,22 +3328,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C76" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D76" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E76" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F76" t="n">
-        <v>3469.4078</v>
+        <v>2227.317</v>
       </c>
       <c r="G76" t="n">
-        <v>15.09000000000001</v>
+        <v>2392575.710425206</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3384,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,22 +3368,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C77" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D77" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E77" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F77" t="n">
-        <v>2877</v>
+        <v>4044.874</v>
       </c>
       <c r="G77" t="n">
-        <v>15.08500000000002</v>
+        <v>2388530.836425207</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3426,9 +3392,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,19 +3411,19 @@
         <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D78" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E78" t="n">
         <v>15.2</v>
       </c>
       <c r="F78" t="n">
-        <v>74776.27899999999</v>
+        <v>217416.9088</v>
       </c>
       <c r="G78" t="n">
-        <v>15.09000000000001</v>
+        <v>2171113.927625207</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3468,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,33 +3448,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C79" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D79" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E79" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F79" t="n">
-        <v>3770</v>
+        <v>21815</v>
       </c>
       <c r="G79" t="n">
-        <v>15.09000000000001</v>
+        <v>2171113.927625207</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,22 +3488,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F80" t="n">
-        <v>8151.5436</v>
+        <v>35913.7566</v>
       </c>
       <c r="G80" t="n">
-        <v>15.08500000000001</v>
+        <v>2171113.927625207</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3552,9 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,22 +3528,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C81" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D81" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F81" t="n">
-        <v>2137.3488</v>
+        <v>61800</v>
       </c>
       <c r="G81" t="n">
-        <v>15.08000000000001</v>
+        <v>2171113.927625207</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3594,9 +3552,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,22 +3568,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F82" t="n">
-        <v>2122.8589</v>
+        <v>1880.1995</v>
       </c>
       <c r="G82" t="n">
-        <v>15.07500000000001</v>
+        <v>2171113.927625207</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3636,9 +3592,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,22 +3608,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1901.3768</v>
+        <v>1179.0499</v>
       </c>
       <c r="G83" t="n">
-        <v>15.07500000000001</v>
+        <v>2171113.927625207</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3678,9 +3632,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,22 +3648,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F84" t="n">
-        <v>1901.3768</v>
+        <v>52434.4703</v>
       </c>
       <c r="G84" t="n">
-        <v>15.07000000000001</v>
+        <v>2118679.457325207</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3720,9 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,22 +3688,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C85" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D85" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E85" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F85" t="n">
-        <v>15627.9999</v>
+        <v>435</v>
       </c>
       <c r="G85" t="n">
-        <v>15.06000000000001</v>
+        <v>2119114.457325207</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3762,9 +3712,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,22 +3728,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C86" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D86" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E86" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F86" t="n">
-        <v>5893.1403</v>
+        <v>74288.5526</v>
       </c>
       <c r="G86" t="n">
-        <v>15.05000000000001</v>
+        <v>2119114.457325207</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3804,9 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,7 +3768,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C87" t="n">
         <v>15.1</v>
@@ -3831,13 +3777,13 @@
         <v>15.1</v>
       </c>
       <c r="E87" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F87" t="n">
-        <v>3183.8589</v>
+        <v>410635.3971</v>
       </c>
       <c r="G87" t="n">
-        <v>15.04</v>
+        <v>1708479.060225207</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3846,9 +3792,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,22 +3808,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F88" t="n">
-        <v>102802.026</v>
+        <v>69012.4942</v>
       </c>
       <c r="G88" t="n">
-        <v>15.035</v>
+        <v>1708479.060225207</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3888,9 +3832,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3906,22 +3848,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C89" t="n">
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E89" t="n">
         <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>24200</v>
+        <v>6497.5474</v>
       </c>
       <c r="G89" t="n">
-        <v>15.03</v>
+        <v>1701981.512825207</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3930,9 +3872,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,33 +3888,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F90" t="n">
-        <v>33400</v>
+        <v>1149.9501</v>
       </c>
       <c r="G90" t="n">
-        <v>15.025</v>
+        <v>1703131.462925207</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J90" t="n">
+        <v>15</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,22 +3930,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C91" t="n">
         <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E91" t="n">
         <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>24000</v>
+        <v>44185.0198</v>
       </c>
       <c r="G91" t="n">
-        <v>15.02</v>
+        <v>1658946.443125207</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4014,9 +3954,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4035,30 +3973,30 @@
         <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>18346</v>
+        <v>1090.7868</v>
       </c>
       <c r="G92" t="n">
-        <v>15.015</v>
+        <v>1658946.443125207</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J92" t="n">
+        <v>15</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,21 +4024,21 @@
         <v>15.1</v>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="n">
-        <v>15.02</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J93" t="n">
+        <v>15</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,33 +4054,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C94" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D94" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E94" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F94" t="n">
-        <v>4200</v>
+        <v>11127.1582</v>
       </c>
       <c r="G94" t="n">
-        <v>15.03</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4158,33 +4096,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C95" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D95" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E95" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F95" t="n">
-        <v>36000</v>
+        <v>88723.6167</v>
       </c>
       <c r="G95" t="n">
-        <v>15.04</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4200,33 +4138,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C96" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D96" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E96" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F96" t="n">
-        <v>17400</v>
+        <v>151854.8363</v>
       </c>
       <c r="G96" t="n">
-        <v>15.04</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,33 +4180,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C97" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D97" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E97" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F97" t="n">
-        <v>8303.8352</v>
+        <v>24613.9857</v>
       </c>
       <c r="G97" t="n">
-        <v>15.045</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4284,33 +4222,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C98" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D98" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E98" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F98" t="n">
-        <v>47229.31087368421</v>
+        <v>1880.1995</v>
       </c>
       <c r="G98" t="n">
-        <v>15.045</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,22 +4264,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C99" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D99" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E99" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F99" t="n">
-        <v>4061.7818</v>
+        <v>426.0274</v>
       </c>
       <c r="G99" t="n">
-        <v>15.04999999999999</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4350,9 +4288,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,22 +4304,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C100" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D100" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E100" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F100" t="n">
-        <v>8536.38982631579</v>
+        <v>70009.14697225807</v>
       </c>
       <c r="G100" t="n">
-        <v>15.05999999999999</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4392,9 +4328,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,22 +4344,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C101" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D101" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E101" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F101" t="n">
-        <v>30662.0982</v>
+        <v>2986</v>
       </c>
       <c r="G101" t="n">
-        <v>15.07499999999999</v>
+        <v>1660946.443125207</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4434,9 +4368,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,22 +4384,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="E102" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>26905.9912</v>
+        <v>2744.018</v>
       </c>
       <c r="G102" t="n">
-        <v>15.08999999999999</v>
+        <v>1658202.425125207</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4476,9 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,33 +4424,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C103" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>49005.72937712418</v>
+        <v>17800</v>
       </c>
       <c r="G103" t="n">
-        <v>15.105</v>
+        <v>1658202.425125207</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J103" t="n">
+        <v>15</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,33 +4466,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E104" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>103070.9981228758</v>
+        <v>2177.0763</v>
       </c>
       <c r="G104" t="n">
-        <v>15.12499999999999</v>
+        <v>1658202.425125207</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J104" t="n">
+        <v>15</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,33 +4508,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C105" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="D105" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="E105" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="F105" t="n">
-        <v>28832</v>
+        <v>3469.4078</v>
       </c>
       <c r="G105" t="n">
-        <v>15.155</v>
+        <v>1661671.832925207</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J105" t="n">
+        <v>15</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,22 +4550,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C106" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="D106" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E106" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F106" t="n">
-        <v>6305.2346</v>
+        <v>2877</v>
       </c>
       <c r="G106" t="n">
-        <v>15.185</v>
+        <v>1658794.832925207</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4644,9 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,22 +4590,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C107" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D107" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E107" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F107" t="n">
-        <v>1923.076</v>
+        <v>74776.27899999999</v>
       </c>
       <c r="G107" t="n">
-        <v>15.22</v>
+        <v>1733571.111925207</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4686,9 +4614,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,66 +4630,62 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C108" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="D108" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E108" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F108" t="n">
-        <v>7760</v>
+        <v>3770</v>
       </c>
       <c r="G108" t="n">
-        <v>15.245</v>
+        <v>1729801.111925207</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1.021490066225166</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1.087837837837838</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>282021.9615</v>
+        <v>8151.5436</v>
       </c>
       <c r="G109" t="n">
-        <v>15.275</v>
+        <v>1721649.568325207</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4773,7 +4695,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4784,32 +4710,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="D110" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E110" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>9200</v>
+        <v>2137.3488</v>
       </c>
       <c r="G110" t="n">
-        <v>15.305</v>
+        <v>1723786.917125207</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4750,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>19400</v>
+        <v>2122.8589</v>
       </c>
       <c r="G111" t="n">
-        <v>15.335</v>
+        <v>1721664.058225207</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4845,7 +4775,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4856,32 +4790,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="C112" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="E112" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="F112" t="n">
-        <v>486401.4988</v>
+        <v>1901.3768</v>
       </c>
       <c r="G112" t="n">
-        <v>15.37</v>
+        <v>1721664.058225207</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4892,32 +4830,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="C113" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="E113" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>1901.3768</v>
       </c>
       <c r="G113" t="n">
-        <v>15.405</v>
+        <v>1721664.058225207</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4928,32 +4870,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="C114" t="n">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="D114" t="n">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="E114" t="n">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="F114" t="n">
-        <v>104010.9253</v>
+        <v>15627.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>15.435</v>
+        <v>1706036.058325207</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>15</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4964,32 +4912,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="C115" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="D115" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="E115" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="F115" t="n">
-        <v>22600</v>
+        <v>5893.1403</v>
       </c>
       <c r="G115" t="n">
-        <v>15.46</v>
+        <v>1706036.058325207</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5000,32 +4954,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="C116" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D116" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E116" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="F116" t="n">
-        <v>7955</v>
+        <v>3183.8589</v>
       </c>
       <c r="G116" t="n">
-        <v>15.475</v>
+        <v>1709219.917225207</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5036,32 +4996,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C117" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E117" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F117" t="n">
-        <v>210</v>
+        <v>102802.026</v>
       </c>
       <c r="G117" t="n">
-        <v>15.485</v>
+        <v>1606417.891225207</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5072,22 +5038,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C118" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F118" t="n">
-        <v>35000</v>
+        <v>24200</v>
       </c>
       <c r="G118" t="n">
-        <v>15.495</v>
+        <v>1606417.891225207</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5097,7 +5063,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5108,32 +5078,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C119" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="E119" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F119" t="n">
-        <v>772.0266</v>
+        <v>33400</v>
       </c>
       <c r="G119" t="n">
-        <v>15.5</v>
+        <v>1606417.891225207</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5144,36 +5120,1174 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>15</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15</v>
+      </c>
+      <c r="F120" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1606417.891225207</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>15</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>15</v>
+      </c>
+      <c r="C121" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>15</v>
+      </c>
+      <c r="E121" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18346</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1588071.891225207</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1588171.891225207</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8303.8352</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>47229.31087368421</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4061.7818</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8536.38982631579</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1592371.891225207</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30662.0982</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1623033.989425207</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26905.9912</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1623033.989425207</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C132" t="n">
         <v>15.4</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D132" t="n">
         <v>15.4</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E132" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>49005.72937712418</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1672039.718802331</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>15.4</v>
       </c>
-      <c r="E120" t="n">
+      <c r="C133" t="n">
         <v>15.4</v>
       </c>
-      <c r="F120" t="n">
+      <c r="D133" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>103070.9981228758</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1672039.718802331</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28832</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1700871.718802331</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6305.2346</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1700871.718802331</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1923.076</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1702794.794802331</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7760</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1695034.794802331</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>282021.9615</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1413012.833302331</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9200</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1422212.833302331</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>19400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1441612.833302331</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>486401.4988</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1928014.332102331</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>200</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1927814.332102331</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>104010.9253</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2031825.257402331</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>22600</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2009225.257402331</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7955</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2001270.257402331</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>210</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2001270.257402331</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2001270.257402331</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>772.0266</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2000498.230802331</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F149" t="n">
         <v>1478.1828</v>
       </c>
-      <c r="G120" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>2001976.413602331</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest SNT.xlsx
+++ b/BackTest/2019-10-29 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -802,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,24 +1507,21 @@
         <v>1515093.242294772</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>15</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1672,20 +1548,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1712,20 +1585,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1750,24 +1620,19 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1792,24 +1657,19 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1834,24 +1694,19 @@
         <v>1486903.202294772</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1876,24 +1731,19 @@
         <v>1486903.202294772</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>15</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1918,24 +1768,19 @@
         <v>1455053.371394772</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>15</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1960,24 +1805,21 @@
         <v>1479053.371394772</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>14.8</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2002,24 +1844,21 @@
         <v>1479053.371394772</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>14.9</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,24 +1883,21 @@
         <v>1479053.371394772</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>14.9</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2086,24 +1922,21 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>14.9</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2128,24 +1961,21 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2170,24 +2000,21 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,24 +2039,21 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2254,24 +2078,21 @@
         <v>1648194.425394772</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2296,24 +2117,19 @@
         <v>1644992.305394772</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2338,24 +2154,21 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2380,24 +2193,21 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2422,24 +2232,19 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2464,24 +2269,19 @@
         <v>1645158.530560334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2508,20 +2308,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2548,20 +2345,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2588,20 +2382,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2628,20 +2419,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2668,20 +2456,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2708,20 +2493,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2748,20 +2530,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2788,20 +2567,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2828,20 +2604,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2868,20 +2641,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2908,20 +2678,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2948,20 +2715,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2988,20 +2752,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3028,20 +2789,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3068,20 +2826,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3108,20 +2863,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3148,20 +2900,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3188,20 +2937,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3228,20 +2974,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3268,20 +3011,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3308,20 +3048,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3346,22 +3083,19 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3388,20 +3122,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3426,22 +3157,19 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3468,20 +3196,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,20 +3233,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3548,20 +3270,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3588,20 +3307,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3628,20 +3344,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3668,20 +3381,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3708,20 +3418,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3748,20 +3455,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3788,20 +3492,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3828,20 +3529,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3868,20 +3566,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3906,24 +3601,19 @@
         <v>1703131.462925207</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>15</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3950,20 +3640,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3988,24 +3675,19 @@
         <v>1658946.443125207</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>15</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4030,24 +3712,19 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>15</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4072,24 +3749,19 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4114,24 +3786,19 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4156,24 +3823,19 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4198,24 +3860,19 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4240,24 +3897,19 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4282,22 +3934,21 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4324,20 +3975,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4364,20 +4012,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4404,20 +4049,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4442,24 +4084,19 @@
         <v>1658202.425125207</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>15</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4484,24 +4121,19 @@
         <v>1658202.425125207</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>15</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4526,24 +4158,19 @@
         <v>1661671.832925207</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>15</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4568,22 +4195,19 @@
         <v>1658794.832925207</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4610,20 +4234,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4650,20 +4271,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4690,20 +4308,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4730,20 +4345,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4770,20 +4382,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4810,20 +4419,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4850,20 +4456,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4890,22 +4493,17 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>15</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4932,22 +4530,17 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4974,22 +4567,17 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5016,22 +4604,17 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5058,20 +4641,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5096,24 +4676,19 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>15</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5138,24 +4713,19 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>15</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5182,20 +4752,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5220,24 +4787,19 @@
         <v>1588171.891225207</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5264,20 +4826,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5304,20 +4863,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5344,20 +4900,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5384,20 +4937,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5424,20 +4974,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5464,20 +5011,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5504,20 +5048,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5544,20 +5085,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5584,20 +5122,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5624,20 +5159,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5664,20 +5196,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5704,20 +5233,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5744,20 +5270,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5782,22 +5305,17 @@
         <v>1702794.794802331</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5822,22 +5340,15 @@
         <v>1695034.794802331</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5864,20 +5375,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5904,20 +5408,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5944,20 +5441,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5982,22 +5472,15 @@
         <v>1928014.332102331</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6024,18 +5507,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L142" t="n">
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6060,18 +5538,15 @@
         <v>2031825.257402331</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6096,18 +5571,15 @@
         <v>2009225.257402331</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6132,18 +5604,15 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6168,18 +5637,15 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6204,18 +5670,15 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6240,18 +5703,15 @@
         <v>2000498.230802331</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6276,20 +5736,17 @@
         <v>2001976.413602331</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest SNT.xlsx
+++ b/BackTest/2019-10-29 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1507,17 +1507,11 @@
         <v>1515093.242294772</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1550,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1587,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1624,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1661,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1698,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1735,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1772,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1805,17 +1771,15 @@
         <v>1479053.371394772</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>14.8</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1844,15 +1808,17 @@
         <v>1479053.371394772</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>14.9</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1883,15 +1849,17 @@
         <v>1479053.371394772</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>14.9</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1922,17 +1890,15 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>14.9</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1961,15 +1927,17 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>15</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2000,15 +1968,17 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>15</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2039,17 +2009,15 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>15</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2078,15 +2046,17 @@
         <v>1648194.425394772</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>15</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>15</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2120,10 +2090,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>15</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2154,17 +2126,11 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2193,17 +2159,11 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +2196,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2273,11 +2229,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2310,11 +2262,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2347,11 +2295,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2384,11 +2328,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2421,11 +2361,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2458,11 +2394,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2495,11 +2427,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2532,11 +2460,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2569,11 +2493,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2606,11 +2526,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2643,11 +2559,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2680,11 +2592,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2717,11 +2625,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2754,11 +2658,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2791,11 +2691,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2828,11 +2724,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2865,11 +2757,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2902,11 +2790,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2939,11 +2823,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2976,11 +2856,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3013,11 +2889,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3046,15 +2918,11 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3083,15 +2951,11 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3120,15 +2984,11 @@
         <v>2388530.836425207</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3157,15 +3017,11 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3194,15 +3050,11 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3231,15 +3083,11 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3272,11 +3120,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3153,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3342,15 +3182,11 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3379,15 +3215,11 @@
         <v>2118679.457325207</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3420,11 +3252,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3457,11 +3285,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3490,15 +3314,11 @@
         <v>1708479.060225207</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3527,15 +3347,11 @@
         <v>1708479.060225207</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3564,15 +3380,11 @@
         <v>1701981.512825207</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3605,11 +3417,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3638,15 +3446,11 @@
         <v>1658946.443125207</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3675,15 +3479,11 @@
         <v>1658946.443125207</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3716,11 +3516,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3753,11 +3549,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3790,11 +3582,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3823,15 +3611,11 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3860,15 +3644,11 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3897,15 +3677,11 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3936,15 +3712,9 @@
       <c r="H99" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3973,15 +3743,11 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4010,15 +3776,11 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +3813,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4088,11 +3846,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4125,11 +3879,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4162,11 +3912,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4195,15 +3941,11 @@
         <v>1658794.832925207</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4236,11 +3978,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4269,15 +4007,11 @@
         <v>1729801.111925207</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4306,15 +4040,11 @@
         <v>1721649.568325207</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4343,15 +4073,11 @@
         <v>1723786.917125207</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4380,15 +4106,11 @@
         <v>1721664.058225207</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4417,15 +4139,11 @@
         <v>1721664.058225207</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4454,15 +4172,11 @@
         <v>1721664.058225207</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4491,15 +4205,11 @@
         <v>1706036.058325207</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4528,15 +4238,11 @@
         <v>1706036.058325207</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4565,15 +4271,11 @@
         <v>1709219.917225207</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4602,15 +4304,11 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4639,15 +4337,11 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4676,15 +4370,11 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4713,15 +4403,11 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4754,11 +4440,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4791,11 +4473,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +4506,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4861,15 +4535,11 @@
         <v>1592371.891225207</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4902,11 +4572,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4605,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4976,11 +4638,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5013,11 +4671,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5050,11 +4704,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5087,11 +4737,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5124,11 +4770,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +4803,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5198,11 +4836,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +4869,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +4902,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5305,16 +4931,14 @@
         <v>1702794.794802331</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5340,7 +4964,7 @@
         <v>1695034.794802331</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5373,7 +4997,7 @@
         <v>1413012.833302331</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5406,7 +5030,7 @@
         <v>1422212.833302331</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5439,7 +5063,7 @@
         <v>1441612.833302331</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5472,7 +5096,7 @@
         <v>1928014.332102331</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5505,7 +5129,7 @@
         <v>1927814.332102331</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5538,7 +5162,7 @@
         <v>2031825.257402331</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5571,7 +5195,7 @@
         <v>2009225.257402331</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5604,7 +5228,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5637,7 +5261,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5670,7 +5294,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5703,7 +5327,7 @@
         <v>2000498.230802331</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5736,7 +5360,7 @@
         <v>2001976.413602331</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5747,6 +5371,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest SNT.xlsx
+++ b/BackTest/2019-10-29 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1606,10 +1606,14 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1639,11 +1643,19 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1684,19 @@
         <v>1486903.202294772</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,10 +1725,14 @@
         <v>1486903.202294772</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1738,11 +1762,19 @@
         <v>1455053.371394772</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1777,9 +1809,13 @@
         <v>14.8</v>
       </c>
       <c r="J42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1814,11 +1850,11 @@
         <v>14.9</v>
       </c>
       <c r="J43" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1855,11 +1891,11 @@
         <v>14.9</v>
       </c>
       <c r="J44" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1896,9 +1932,13 @@
         <v>14.9</v>
       </c>
       <c r="J45" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1973,11 @@
         <v>15</v>
       </c>
       <c r="J46" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1968,17 +2008,15 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2009,15 +2047,17 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>15</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2046,17 +2086,15 @@
         <v>1648194.425394772</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>15</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2095,7 +2133,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2129,8 +2167,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2162,8 +2206,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2195,8 +2245,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2228,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2261,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2294,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2327,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>15</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2360,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>15</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2393,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>15</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2426,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>15</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2459,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>15</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2492,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>15</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2525,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2558,8 +2674,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>15</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2591,8 +2713,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2624,8 +2752,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2657,8 +2791,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>15</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2690,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>15</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2723,8 +2869,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>15</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2756,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2789,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>15</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2822,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>15</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2852,13 +3022,19 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>15</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>1.035</v>
       </c>
       <c r="M73" t="inlineStr"/>
     </row>
@@ -2885,7 +3061,7 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2918,7 +3094,7 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3116,7 +3292,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3182,7 +3358,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3314,7 +3490,7 @@
         <v>1708479.060225207</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3347,7 +3523,7 @@
         <v>1708479.060225207</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3380,7 +3556,7 @@
         <v>1701981.512825207</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3446,7 +3622,7 @@
         <v>1658946.443125207</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3479,7 +3655,7 @@
         <v>1658946.443125207</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3578,7 +3754,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3611,7 +3787,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3644,7 +3820,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3677,7 +3853,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3710,7 +3886,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3743,7 +3919,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3776,7 +3952,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4007,7 +4183,7 @@
         <v>1729801.111925207</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4040,7 +4216,7 @@
         <v>1721649.568325207</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4073,7 +4249,7 @@
         <v>1723786.917125207</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4106,7 +4282,7 @@
         <v>1721664.058225207</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4139,7 +4315,7 @@
         <v>1721664.058225207</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4172,7 +4348,7 @@
         <v>1721664.058225207</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4205,7 +4381,7 @@
         <v>1706036.058325207</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4238,7 +4414,7 @@
         <v>1706036.058325207</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4304,7 +4480,7 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4337,7 +4513,7 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4370,7 +4546,7 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4403,7 +4579,7 @@
         <v>1606417.891225207</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4535,7 +4711,7 @@
         <v>1592371.891225207</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4931,7 +5107,7 @@
         <v>1702794.794802331</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5228,7 +5404,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5261,7 +5437,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5371,6 +5547,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest SNT.xlsx
+++ b/BackTest/2019-10-29 BackTest SNT.xlsx
@@ -451,7 +451,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1012,10 +1050,14 @@
         <v>1466418.433694771</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1045,11 +1087,19 @@
         <v>1506540.292394771</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1128,19 @@
         <v>1519940.292394771</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1144,10 +1202,14 @@
         <v>1509574.378494771</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1239,19 @@
         <v>1509574.378494771</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,10 +1319,14 @@
         <v>1348279.428794771</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1276,11 +1356,19 @@
         <v>1348279.428794771</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1397,19 @@
         <v>1448715.531794772</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1438,19 @@
         <v>1305091.531794772</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1479,19 @@
         <v>1305091.531794772</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1520,19 @@
         <v>1305091.531794772</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1561,19 @@
         <v>1225091.531794772</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1602,19 @@
         <v>1225091.531794772</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1643,19 @@
         <v>1515093.242294772</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1684,19 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1725,19 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1612,9 +1772,13 @@
         <v>14.9</v>
       </c>
       <c r="J37" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1813,11 @@
         <v>14.9</v>
       </c>
       <c r="J38" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1690,11 +1854,11 @@
         <v>14.9</v>
       </c>
       <c r="J39" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1731,9 +1895,13 @@
         <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>15</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1936,11 @@
         <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1809,7 +1977,7 @@
         <v>14.8</v>
       </c>
       <c r="J42" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1850,7 +2018,7 @@
         <v>14.9</v>
       </c>
       <c r="J43" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1891,7 +2059,7 @@
         <v>14.9</v>
       </c>
       <c r="J44" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1932,7 +2100,7 @@
         <v>14.9</v>
       </c>
       <c r="J45" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1973,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="J46" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2008,11 +2176,13 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
       <c r="J47" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2047,11 +2217,13 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
       <c r="J48" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2086,11 +2258,13 @@
         <v>1648194.425394772</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15</v>
+      </c>
       <c r="J49" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2125,11 +2299,13 @@
         <v>1644992.305394772</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J50" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2164,11 +2340,13 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15</v>
+      </c>
       <c r="J51" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2203,11 +2381,13 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2242,11 +2422,13 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J53" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2281,11 +2463,13 @@
         <v>1645158.530560334</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J54" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2320,11 +2504,13 @@
         <v>1645092.305394772</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J55" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2359,11 +2545,13 @@
         <v>1645092.305394772</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J56" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2398,11 +2586,13 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J57" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2437,11 +2627,13 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J58" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2476,11 +2668,13 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J59" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2515,11 +2709,13 @@
         <v>1631752.240594771</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J60" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2554,11 +2750,13 @@
         <v>1736752.240594771</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15</v>
+      </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2593,11 +2791,13 @@
         <v>1730049.344494771</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J62" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2632,11 +2832,13 @@
         <v>1730668.904394771</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J63" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2671,11 +2873,13 @@
         <v>1724068.904394771</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J64" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2710,11 +2914,13 @@
         <v>1730668.904394771</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J65" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2749,11 +2955,13 @@
         <v>1730168.904394771</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J66" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2788,11 +2996,13 @@
         <v>1732325.662394771</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J67" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2827,11 +3037,13 @@
         <v>1812440.966194771</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J68" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2870,7 +3082,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2909,7 +3121,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2948,7 +3160,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2987,7 +3199,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3022,19 +3234,19 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.035</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
     </row>
@@ -3061,11 +3273,17 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3097,8 +3315,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +3351,17 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +3390,17 @@
         <v>2388530.836425207</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +3429,17 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +3468,17 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +3507,17 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3292,11 +3546,17 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3328,8 +3588,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3361,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3663,17 @@
         <v>2118679.457325207</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3427,8 +3705,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3460,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3493,8 +3783,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3526,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3559,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3592,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3625,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3658,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3691,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3724,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +4092,17 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3790,8 +4134,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3823,8 +4173,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3856,8 +4212,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3889,8 +4251,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3955,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3988,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4021,8 +4407,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4054,8 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4087,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4153,8 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4252,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4285,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4351,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4384,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4417,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4450,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4483,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4516,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4549,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4582,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4615,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4714,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4747,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4846,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4879,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4945,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4978,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5011,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5691,17 @@
         <v>1702794.794802331</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5730,17 @@
         <v>1695034.794802331</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5769,17 @@
         <v>1413012.833302331</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5808,17 @@
         <v>1422212.833302331</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +5847,17 @@
         <v>1441612.833302331</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5886,17 @@
         <v>1928014.332102331</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5925,17 @@
         <v>1927814.332102331</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5338,11 +5964,17 @@
         <v>2031825.257402331</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5374,10 +6006,16 @@
         <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>1.021315789473684</v>
       </c>
       <c r="M144" t="inlineStr"/>
     </row>
@@ -5404,7 +6042,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5437,7 +6075,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5470,7 +6108,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5503,7 +6141,7 @@
         <v>2000498.230802331</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5536,7 +6174,7 @@
         <v>2001976.413602331</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
